--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="151">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -673,6 +673,14 @@
   </si>
   <si>
     <t>团贷网：10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行卡：45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团贷网：11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1321,15 +1329,15 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="1" max="1" width="8.69921875" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="8"/>
+    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1362,16 +1370,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" customWidth="1"/>
-    <col min="6" max="9" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="9" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1421,7 +1429,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1457,7 +1465,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1467,7 +1475,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1477,7 +1485,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1487,7 +1495,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1497,7 +1505,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1507,7 +1515,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1517,7 +1525,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1527,7 +1535,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1537,7 +1545,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1547,7 +1555,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1557,7 +1565,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1567,7 +1575,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1577,7 +1585,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1587,7 +1595,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1597,7 +1605,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1607,7 +1615,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1617,7 +1625,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1627,7 +1635,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1637,7 +1645,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1647,7 +1655,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1657,7 +1665,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1667,7 +1675,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1677,7 +1685,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1687,7 +1695,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1697,7 +1705,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1707,7 +1715,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1717,7 +1725,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1727,7 +1735,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1755,17 +1763,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1811,7 +1819,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1834,7 +1842,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1857,7 +1865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1866,7 +1874,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1875,7 +1883,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1884,7 +1892,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1907,24 +1915,24 @@
   </sheetPr>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2013,7 +2021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2036,7 +2044,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2105,7 +2113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2243,7 +2251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2267,7 +2275,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2290,7 +2298,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2314,7 +2322,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2338,7 +2346,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2361,7 +2369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2384,7 +2392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2430,7 +2438,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2476,7 +2484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2499,7 +2507,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2591,7 +2599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2614,7 +2622,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2637,7 +2645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2660,7 +2668,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2683,7 +2691,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2729,7 +2737,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2752,7 +2760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2798,7 +2806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2821,7 +2829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2844,7 +2852,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2867,7 +2875,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -2890,7 +2898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -2913,7 +2921,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -2959,17 +2967,35 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="38">
+        <v>43139.484722222223</v>
+      </c>
+      <c r="E46" s="42">
+        <v>1708.34</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="10">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="10">
         <v>47</v>
       </c>
@@ -2992,20 +3018,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3028,7 +3054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3048,7 +3074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3068,7 +3094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3088,7 +3114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3108,7 +3134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3128,7 +3154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3148,7 +3174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3168,7 +3194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3188,7 +3214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3208,7 +3234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3228,7 +3254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3248,7 +3274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3268,7 +3294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3288,7 +3314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3308,7 +3334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3328,7 +3354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3349,7 +3375,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3372,7 +3398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3395,7 +3421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3418,7 +3444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3441,7 +3467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3464,7 +3490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3487,7 +3513,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3510,129 +3536,129 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
@@ -3657,19 +3683,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -3690,7 +3716,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3710,7 +3736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3730,199 +3756,199 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -3944,19 +3970,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +4003,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3997,7 +4023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4017,98 +4043,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4144,27 +4170,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4270,20 +4296,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="8"/>
+    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4309,7 +4335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4337,7 +4363,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4365,7 +4391,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4393,7 +4419,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4419,7 +4445,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4445,7 +4471,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4469,7 +4495,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4481,7 +4507,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4493,7 +4519,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4505,7 +4531,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4517,7 +4543,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4529,7 +4555,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4541,7 +4567,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4553,7 +4579,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4565,7 +4591,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4577,7 +4603,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4589,7 +4615,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4601,7 +4627,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4613,7 +4639,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4625,7 +4651,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -4637,7 +4663,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -4649,7 +4675,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -4661,163 +4687,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -4838,18 +4864,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.296875" customWidth="1"/>
+    <col min="6" max="6" width="39.19921875" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4872,7 +4898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -4895,7 +4921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -4918,7 +4944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -4941,7 +4967,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -4964,7 +4990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -4973,7 +4999,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -4982,7 +5008,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -4991,7 +5017,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5000,7 +5026,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5009,7 +5035,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5018,7 +5044,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5027,7 +5053,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5036,7 +5062,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5045,7 +5071,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5054,7 +5080,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5063,7 +5089,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5072,7 +5098,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5081,7 +5107,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5090,7 +5116,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5099,7 +5125,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5108,7 +5134,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5117,7 +5143,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5126,7 +5152,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5153,19 +5179,19 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5191,7 +5217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5233,17 +5259,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5266,7 +5292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5289,7 +5315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5312,7 +5338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5335,7 +5361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5358,7 +5384,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5367,7 +5393,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5376,7 +5402,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5385,7 +5411,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5394,7 +5420,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5403,7 +5429,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5412,7 +5438,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5421,7 +5447,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5430,7 +5456,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5439,7 +5465,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5448,7 +5474,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5457,7 +5483,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5466,7 +5492,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5475,7 +5501,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5484,7 +5510,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5493,7 +5519,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -5516,22 +5542,22 @@
   </sheetPr>
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.9140625" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5554,7 +5580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5577,7 +5603,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5600,7 +5626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5623,7 +5649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5646,7 +5672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -5669,7 +5695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -5692,7 +5718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -5715,7 +5741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -5738,7 +5764,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -5761,7 +5787,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -5784,16 +5810,30 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="38">
+        <v>43139.484722222223</v>
+      </c>
+      <c r="E12" s="42">
+        <v>-1708.34</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5802,7 +5842,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5811,7 +5851,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5820,7 +5860,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5829,7 +5869,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5838,7 +5878,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5847,7 +5887,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -681,6 +681,14 @@
   </si>
   <si>
     <t>团贷网：11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行卡：46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东金融：6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1329,15 +1337,15 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="8"/>
+    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1370,16 +1378,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" customWidth="1"/>
-    <col min="6" max="9" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.9140625" customWidth="1"/>
+    <col min="6" max="9" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1429,7 +1437,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1465,7 +1473,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1475,7 +1483,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1485,7 +1493,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1495,7 +1503,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1505,7 +1513,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1515,7 +1523,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1525,7 +1533,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1535,7 +1543,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1545,7 +1553,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1555,7 +1563,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1565,7 +1573,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1575,7 +1583,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1585,7 +1593,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1595,7 +1603,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1605,7 +1613,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1615,7 +1623,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1625,7 +1633,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1635,7 +1643,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1645,7 +1653,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1655,7 +1663,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1665,7 +1673,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1675,7 +1683,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1685,7 +1693,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1695,7 +1703,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1705,7 +1713,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1715,7 +1723,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1725,7 +1733,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1735,7 +1743,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1760,20 +1768,20 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1865,34 +1873,72 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="19"/>
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="38">
+        <v>43102.660416666666</v>
+      </c>
+      <c r="E5" s="42">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="10"/>
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="38">
+        <v>43110.9375</v>
+      </c>
+      <c r="E6" s="42">
+        <v>-30000</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="38">
+        <v>43141.548611111109</v>
+      </c>
+      <c r="E7" s="42">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1915,24 +1961,22 @@
   </sheetPr>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="8"/>
+    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -1955,7 +1999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -1975,7 +2019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -1998,7 +2042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2021,7 +2065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2044,7 +2088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2067,7 +2111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2090,7 +2134,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2113,7 +2157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2136,7 +2180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2159,7 +2203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2182,7 +2226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2205,7 +2249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2228,7 +2272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2251,7 +2295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2275,7 +2319,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2298,7 +2342,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2322,7 +2366,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2346,7 +2390,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2369,7 +2413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2392,7 +2436,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2415,7 +2459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2438,7 +2482,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2461,7 +2505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2484,7 +2528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2507,7 +2551,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2530,7 +2574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2553,7 +2597,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2576,7 +2620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2599,7 +2643,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2622,7 +2666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2645,7 +2689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2668,7 +2712,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2691,7 +2735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2714,7 +2758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2737,7 +2781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2760,7 +2804,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2783,7 +2827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2806,7 +2850,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2829,7 +2873,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2852,7 +2896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2875,7 +2919,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -2898,7 +2942,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -2921,7 +2965,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -2944,7 +2988,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -2967,7 +3011,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="10">
         <v>45</v>
       </c>
@@ -2990,14 +3034,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C47" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="38">
+        <v>43141.548611111109</v>
+      </c>
+      <c r="E47" s="42">
+        <v>-15000</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="10">
         <v>47</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3018,20 +3083,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="8"/>
+    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3054,7 +3119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3074,7 +3139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3094,7 +3159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3114,7 +3179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3134,7 +3199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3154,7 +3219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3174,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3194,7 +3259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3214,7 +3279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3234,7 +3299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3254,7 +3319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3274,7 +3339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3294,7 +3359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3314,7 +3379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3334,7 +3399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3354,7 +3419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3375,7 +3440,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3398,7 +3463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3421,7 +3486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3444,7 +3509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3467,7 +3532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3490,7 +3555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3513,7 +3578,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3536,129 +3601,129 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
@@ -3683,19 +3748,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="8"/>
+    <col min="8" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -3716,7 +3781,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3736,7 +3801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3756,199 +3821,199 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -3970,19 +4035,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="2"/>
+    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4003,7 +4068,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4023,7 +4088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4043,98 +4108,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4170,27 +4235,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4296,20 +4361,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="8"/>
+    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4335,7 +4400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4363,7 +4428,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4391,7 +4456,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4419,7 +4484,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4445,7 +4510,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4471,7 +4536,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4495,7 +4560,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4507,7 +4572,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4519,7 +4584,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4531,7 +4596,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4543,7 +4608,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4555,7 +4620,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4567,7 +4632,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4579,7 +4644,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4591,7 +4656,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4603,7 +4668,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4615,7 +4680,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4627,7 +4692,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4639,7 +4704,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4651,7 +4716,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -4663,7 +4728,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -4675,7 +4740,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -4687,163 +4752,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -4864,18 +4929,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.296875" customWidth="1"/>
-    <col min="6" max="6" width="39.19921875" customWidth="1"/>
-    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4898,7 +4963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -4921,7 +4986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -4944,7 +5009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -4967,7 +5032,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -4990,7 +5055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -4999,7 +5064,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5008,7 +5073,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5017,7 +5082,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5026,7 +5091,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5035,7 +5100,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5044,7 +5109,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5053,7 +5118,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5062,7 +5127,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5071,7 +5136,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5080,7 +5145,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5089,7 +5154,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5098,7 +5163,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5107,7 +5172,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5116,7 +5181,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5125,7 +5190,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5134,7 +5199,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5143,7 +5208,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5152,7 +5217,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5175,23 +5240,21 @@
   </sheetPr>
   <dimension ref="B1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5217,7 +5280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5259,17 +5322,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
-    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5292,7 +5355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5315,7 +5378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5338,7 +5401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5361,7 +5424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5384,7 +5447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5393,7 +5456,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5402,7 +5465,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5411,7 +5474,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5420,7 +5483,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5429,7 +5492,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5438,7 +5501,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5447,7 +5510,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5456,7 +5519,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5465,7 +5528,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5474,7 +5537,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5483,7 +5546,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5492,7 +5555,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5501,7 +5564,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5510,7 +5573,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5519,7 +5582,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -5546,18 +5609,18 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.9140625" customWidth="1"/>
+    <col min="8" max="8" width="24.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5580,7 +5643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5603,7 +5666,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5626,7 +5689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5649,7 +5712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5672,7 +5735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -5695,7 +5758,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -5718,7 +5781,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -5741,7 +5804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -5764,7 +5827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -5787,7 +5850,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -5810,7 +5873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -5833,7 +5896,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5842,7 +5905,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5851,7 +5914,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5860,7 +5923,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5869,7 +5932,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5878,7 +5941,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5887,7 +5950,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="156">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t>京东金融：6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行卡：47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团贷网：12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团贷网：12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1961,7 +1973,9 @@
   </sheetPr>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3063,6 +3077,21 @@
       </c>
       <c r="C48" s="37" t="s">
         <v>10</v>
+      </c>
+      <c r="D48" s="38">
+        <v>43159.933333333334</v>
+      </c>
+      <c r="E48" s="42">
+        <v>2583.33</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5603,10 +5632,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5896,14 +5925,28 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="41"/>
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="B13" s="12">
+        <v>12</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="38">
+        <v>43159.933333333334</v>
+      </c>
+      <c r="E13" s="42">
+        <v>-2583.33</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
@@ -5959,6 +6002,14 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>2583.33</v>
+      </c>
+      <c r="H48" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="工行卡" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">工行卡!$A$1:$M$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">陆金所!$C$1:$F$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">人人贷!$C$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">宜人贷!$C$1:$F$1</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="160">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -701,6 +702,22 @@
   </si>
   <si>
     <t>团贷网：12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田成玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1343,21 +1360,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="1" max="1" width="8.69921875" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="8"/>
+    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1366,11 +1383,30 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="16"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="6">
+        <v>322</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1387,19 +1423,19 @@
   <dimension ref="B1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" customWidth="1"/>
-    <col min="6" max="9" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="9" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1449,7 +1485,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1475,7 +1511,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1485,7 +1521,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1495,7 +1531,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1505,7 +1541,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1515,7 +1551,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1525,7 +1561,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1535,7 +1571,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1545,7 +1581,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1555,7 +1591,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1565,7 +1601,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1575,7 +1611,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1585,7 +1621,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1595,7 +1631,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1605,7 +1641,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1615,7 +1651,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1625,7 +1661,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1635,7 +1671,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1645,7 +1681,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1655,7 +1691,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1665,7 +1701,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1675,7 +1711,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1685,7 +1721,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1695,7 +1731,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1705,7 +1741,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1715,7 +1751,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1725,7 +1761,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1735,7 +1771,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1745,7 +1781,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1755,7 +1791,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1780,20 +1816,20 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1839,7 +1875,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1862,7 +1898,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1885,7 +1921,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -1906,7 +1942,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -1927,7 +1963,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -1950,7 +1986,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1973,24 +2009,24 @@
   </sheetPr>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +2049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -2033,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2056,7 +2092,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2079,7 +2115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2102,7 +2138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2125,7 +2161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2148,7 +2184,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2171,7 +2207,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2194,7 +2230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2217,7 +2253,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2240,7 +2276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2263,7 +2299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2286,7 +2322,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2309,7 +2345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2333,7 +2369,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2356,7 +2392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2380,7 +2416,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2404,7 +2440,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2427,7 +2463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2450,7 +2486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2473,7 +2509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2496,7 +2532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2519,7 +2555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2542,7 +2578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2565,7 +2601,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2588,7 +2624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2611,7 +2647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2634,7 +2670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2657,7 +2693,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2680,7 +2716,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2703,7 +2739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2726,7 +2762,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2749,7 +2785,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2772,7 +2808,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2795,7 +2831,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2818,7 +2854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2841,7 +2877,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2864,7 +2900,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2887,7 +2923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2910,7 +2946,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2933,7 +2969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -2956,7 +2992,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -2979,7 +3015,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -3002,7 +3038,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -3025,7 +3061,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="10">
         <v>45</v>
       </c>
@@ -3048,7 +3084,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="10">
         <v>46</v>
       </c>
@@ -3071,7 +3107,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="10">
         <v>47</v>
       </c>
@@ -3109,23 +3145,23 @@
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3148,7 +3184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3168,7 +3204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3188,7 +3224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3208,7 +3244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3248,7 +3284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3288,7 +3324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3308,7 +3344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3328,7 +3364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3348,7 +3384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3368,7 +3404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3388,7 +3424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3408,7 +3444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3428,7 +3464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3448,7 +3484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3469,7 +3505,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3492,7 +3528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3515,7 +3551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3538,7 +3574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3561,7 +3597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3584,7 +3620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3607,7 +3643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3630,129 +3666,129 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
@@ -3777,19 +3813,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -3810,7 +3846,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3830,7 +3866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3850,199 +3886,199 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -4061,22 +4097,22 @@
   <dimension ref="B1:H58"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4133,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4117,7 +4153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4137,98 +4173,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4264,27 +4300,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4390,20 +4426,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="8"/>
+    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4429,7 +4465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4457,7 +4493,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4485,7 +4521,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4513,7 +4549,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4539,7 +4575,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4565,7 +4601,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4589,7 +4625,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4601,7 +4637,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4613,7 +4649,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4625,7 +4661,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4637,7 +4673,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4649,7 +4685,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4661,7 +4697,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4673,7 +4709,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4685,7 +4721,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4697,7 +4733,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4709,7 +4745,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4721,7 +4757,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4733,7 +4769,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4745,7 +4781,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -4757,7 +4793,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -4769,7 +4805,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -4781,163 +4817,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -4958,18 +4994,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.296875" customWidth="1"/>
+    <col min="6" max="6" width="39.19921875" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4992,7 +5028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5015,7 +5051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -5038,7 +5074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5061,7 +5097,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5084,7 +5120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5093,7 +5129,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5102,7 +5138,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5111,7 +5147,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5120,7 +5156,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5129,7 +5165,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5138,7 +5174,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5147,7 +5183,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5156,7 +5192,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5165,7 +5201,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5174,7 +5210,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5183,7 +5219,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5192,7 +5228,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5201,7 +5237,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5210,7 +5246,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5219,7 +5255,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5228,7 +5264,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5237,7 +5273,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5246,7 +5282,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5271,19 +5307,19 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5309,7 +5345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5351,17 +5387,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5384,7 +5420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5407,7 +5443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5430,7 +5466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5453,7 +5489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5476,7 +5512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5485,7 +5521,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5494,7 +5530,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5503,7 +5539,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5512,7 +5548,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5521,7 +5557,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5530,7 +5566,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5539,7 +5575,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5548,7 +5584,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5557,7 +5593,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5566,7 +5602,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5575,7 +5611,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5584,7 +5620,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5593,7 +5629,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5602,7 +5638,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5611,7 +5647,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -5634,22 +5670,22 @@
   </sheetPr>
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.9140625" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5672,7 +5708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5695,7 +5731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5718,7 +5754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5741,7 +5777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5764,7 +5800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -5787,7 +5823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -5810,7 +5846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -5833,7 +5869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -5856,7 +5892,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -5879,7 +5915,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -5902,7 +5938,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -5925,7 +5961,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -5948,7 +5984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5957,7 +5993,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5966,7 +6002,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5975,7 +6011,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5984,7 +6020,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5993,7 +6029,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -6002,7 +6038,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>2583.33</v>
       </c>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="159">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -456,10 +456,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>爱钱进-编号2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PPmoney-编号1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -701,6 +697,22 @@
   </si>
   <si>
     <t>团贷网：12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行卡：48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行卡：48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团贷网：13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团贷网：13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1410,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1430,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="38">
         <v>43073</v>
@@ -1454,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="38">
         <v>43073.618136574078</v>
@@ -1472,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
@@ -1821,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="38">
         <v>43084.42083333333</v>
@@ -1836,7 +1848,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
@@ -1844,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="38">
         <v>43087.691666666666</v>
@@ -1859,7 +1871,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -1867,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="38">
         <v>43094.223611111112</v>
@@ -1882,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
@@ -1890,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="38">
         <v>43102.660416666666</v>
@@ -1911,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="38">
         <v>43110.9375</v>
@@ -1932,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="38">
         <v>43141.548611111109</v>
@@ -1947,7 +1959,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
@@ -1971,10 +1983,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:M48"/>
+  <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -2293,20 +2305,20 @@
       <c r="C14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="38">
-        <v>42997.640277777777</v>
+      <c r="D14" s="29">
+        <v>43171.724305555559</v>
       </c>
       <c r="E14" s="25">
-        <v>-9995</v>
+        <v>-1708.34</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>29</v>
+      <c r="G14" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
@@ -2329,7 +2341,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M15" s="18"/>
     </row>
@@ -2353,7 +2365,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.4">
@@ -2376,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M17" s="18"/>
     </row>
@@ -2424,7 +2436,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
@@ -2447,7 +2459,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
@@ -2470,7 +2482,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
@@ -2493,7 +2505,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
@@ -2516,7 +2528,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
@@ -2562,7 +2574,7 @@
         <v>29</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
@@ -2642,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="42">
         <v>-100000</v>
@@ -2654,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
@@ -2677,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
@@ -2723,7 +2735,7 @@
         <v>29</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -2746,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -2769,7 +2781,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -2792,7 +2804,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
@@ -2815,7 +2827,7 @@
         <v>24</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -2838,7 +2850,7 @@
         <v>29</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -2861,7 +2873,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
@@ -2884,7 +2896,7 @@
         <v>24</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -2907,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
@@ -2930,7 +2942,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -2953,7 +2965,7 @@
         <v>24</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
@@ -2976,7 +2988,7 @@
         <v>24</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
@@ -2999,7 +3011,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
@@ -3022,7 +3034,7 @@
         <v>24</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
@@ -3045,7 +3057,7 @@
         <v>24</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
@@ -3068,7 +3080,7 @@
         <v>29</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
@@ -3091,7 +3103,30 @@
         <v>24</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="10">
+        <v>48</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="38">
+        <v>43171.724305555559</v>
+      </c>
+      <c r="E49" s="42">
+        <v>1708.34</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3624,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="29">
         <v>43081.502083333333</v>
@@ -3604,7 +3639,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -3612,7 +3647,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="29">
         <v>43081.564583333333</v>
@@ -3627,7 +3662,7 @@
         <v>25</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -4535,7 +4570,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="20"/>
     </row>
@@ -4561,7 +4596,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="20"/>
     </row>
@@ -4585,7 +4620,7 @@
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -5043,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="38">
         <v>43087.408333333333</v>
@@ -5058,7 +5093,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
@@ -5066,7 +5101,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="38">
         <v>43087.408333333333</v>
@@ -5081,7 +5116,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
@@ -5458,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="38">
         <v>43091.864583333336</v>
@@ -5473,7 +5508,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
@@ -5632,10 +5667,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5769,7 +5804,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="38">
         <v>43069.503472222219</v>
@@ -5784,7 +5819,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
@@ -5792,7 +5827,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="38">
         <v>43070.613888888889</v>
@@ -5807,7 +5842,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
@@ -5815,7 +5850,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="38">
         <v>43074.8125</v>
@@ -5830,7 +5865,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -5838,7 +5873,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="38">
         <v>43101.388888888891</v>
@@ -5853,7 +5888,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -5861,7 +5896,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="38">
         <v>43108.505555555559</v>
@@ -5876,7 +5911,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -5884,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="38">
         <v>43130.484722222223</v>
@@ -5899,7 +5934,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -5907,7 +5942,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="38">
         <v>43139.484722222223</v>
@@ -5922,7 +5957,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -5930,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="38">
         <v>43159.933333333334</v>
@@ -5945,17 +5980,31 @@
         <v>29</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="41"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="38">
+        <v>43171.724305555559</v>
+      </c>
+      <c r="E14" s="42">
+        <v>-1708.34</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
@@ -6007,7 +6056,18 @@
         <v>2583.33</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>1708.34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3FCE888B-B217-4786-981D-6E3381962135}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="161">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -715,11 +716,19 @@
     <t>团贷网：13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>工行卡：49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东金融：7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -1354,22 +1363,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="1" max="1" width="8.69921875" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="8"/>
+    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1402,16 +1411,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" customWidth="1"/>
-    <col min="6" max="9" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="9" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1461,7 +1470,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1497,7 +1506,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1507,7 +1516,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1517,7 +1526,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1527,7 +1536,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1537,7 +1546,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1547,7 +1556,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1557,7 +1566,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1567,7 +1576,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1577,7 +1586,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1587,7 +1596,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1597,7 +1606,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1607,7 +1616,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1617,7 +1626,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1627,7 +1636,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1637,7 +1646,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1647,7 +1656,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1657,7 +1666,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1667,7 +1676,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1677,7 +1686,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1687,7 +1696,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1697,7 +1706,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1707,7 +1716,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1717,7 +1726,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1727,7 +1736,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1737,7 +1746,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1747,7 +1756,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1757,7 +1766,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1767,7 +1776,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1785,27 +1794,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -1918,7 +1927,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -1939,7 +1948,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -1962,14 +1971,28 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="41"/>
+    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="38">
+        <v>43174.942361111112</v>
+      </c>
+      <c r="E8" s="42">
+        <v>-136402.59</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1979,30 +2002,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:M49"/>
+  <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -2025,7 +2048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -2045,7 +2068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2068,7 +2091,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2091,7 +2114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2114,7 +2137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2137,7 +2160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2160,7 +2183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2183,7 +2206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2206,7 +2229,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2229,7 +2252,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2252,7 +2275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2275,7 +2298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2298,7 +2321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2321,7 +2344,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2345,7 +2368,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2368,7 +2391,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2392,7 +2415,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2416,7 +2439,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2439,7 +2462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2462,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2485,7 +2508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2508,7 +2531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2531,7 +2554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2554,7 +2577,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2577,7 +2600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2600,7 +2623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2623,7 +2646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2646,7 +2669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2669,7 +2692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2692,7 +2715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2715,7 +2738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2738,7 +2761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2761,7 +2784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2784,7 +2807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2807,7 +2830,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2830,7 +2853,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2853,7 +2876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2876,7 +2899,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2899,7 +2922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2922,7 +2945,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2945,7 +2968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -2968,7 +2991,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -2991,7 +3014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -3014,7 +3037,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -3037,7 +3060,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="10">
         <v>45</v>
       </c>
@@ -3060,7 +3083,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="10">
         <v>46</v>
       </c>
@@ -3083,7 +3106,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="10">
         <v>47</v>
       </c>
@@ -3106,7 +3129,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="10">
         <v>48</v>
       </c>
@@ -3127,6 +3150,54 @@
       </c>
       <c r="H49" s="8" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
+        <v>49</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="38">
+        <v>43174.942361111112</v>
+      </c>
+      <c r="E50" s="42">
+        <v>136402.59</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="10">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3137,7 +3208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3147,20 +3218,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3183,7 +3254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3203,7 +3274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3223,7 +3294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3243,7 +3314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3263,7 +3334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3283,7 +3354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3303,7 +3374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3323,7 +3394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3343,7 +3414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3363,7 +3434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3383,7 +3454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3403,7 +3474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3423,7 +3494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3443,7 +3514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3463,7 +3534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3483,7 +3554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3504,7 +3575,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3527,7 +3598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3550,7 +3621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3573,7 +3644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3596,7 +3667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3619,7 +3690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3642,7 +3713,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3665,133 +3736,133 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F17"/>
+  <autoFilter ref="C1:F17" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <sortState ref="B2:F57">
     <sortCondition ref="D1"/>
   </sortState>
@@ -3802,7 +3873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3812,19 +3883,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -3845,7 +3916,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3865,7 +3936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3885,203 +3956,203 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1"/>
+  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4089,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4099,19 +4170,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4132,7 +4203,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4152,7 +4223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4172,98 +4243,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4299,27 +4370,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4408,14 +4479,14 @@
       <c r="D58" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1"/>
+  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4425,20 +4496,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="8"/>
+    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4464,7 +4535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4492,7 +4563,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4520,7 +4591,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4548,7 +4619,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4574,7 +4645,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4600,7 +4671,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4624,7 +4695,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4636,7 +4707,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4648,7 +4719,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4660,7 +4731,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4672,7 +4743,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4684,7 +4755,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4696,7 +4767,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4708,7 +4779,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4720,7 +4791,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4732,7 +4803,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4744,7 +4815,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4756,7 +4827,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4768,7 +4839,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4780,7 +4851,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -4792,7 +4863,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -4804,7 +4875,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -4816,163 +4887,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -4983,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4993,18 +5064,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.296875" customWidth="1"/>
+    <col min="6" max="6" width="39.19921875" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5027,7 +5098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5050,7 +5121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -5073,7 +5144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5096,7 +5167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5119,7 +5190,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5128,7 +5199,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5137,7 +5208,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5146,7 +5217,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5155,7 +5226,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5164,7 +5235,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5173,7 +5244,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5182,7 +5253,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5191,7 +5262,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5200,7 +5271,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5209,7 +5280,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5218,7 +5289,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5227,7 +5298,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5236,7 +5307,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5245,7 +5316,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5254,7 +5325,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5263,7 +5334,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5272,7 +5343,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5281,7 +5352,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5298,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5306,19 +5377,19 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5344,7 +5415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5376,7 +5447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5386,17 +5457,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5419,7 +5490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5442,7 +5513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5465,7 +5536,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5488,7 +5559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5511,7 +5582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5520,7 +5591,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5529,7 +5600,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5538,7 +5609,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5547,7 +5618,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5556,7 +5627,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5565,7 +5636,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5574,7 +5645,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5583,7 +5654,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5592,7 +5663,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5601,7 +5672,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5610,7 +5681,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5619,7 +5690,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5628,7 +5699,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5637,7 +5708,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5646,7 +5717,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -5663,28 +5734,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.9140625" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5707,7 +5778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5730,7 +5801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5753,7 +5824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5776,7 +5847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5799,7 +5870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -5822,7 +5893,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -5845,7 +5916,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -5868,7 +5939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -5891,7 +5962,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -5914,7 +5985,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -5937,7 +6008,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -5960,7 +6031,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -5983,7 +6054,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <v>13</v>
       </c>
@@ -6006,7 +6077,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -6015,7 +6086,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -6024,7 +6095,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -6033,7 +6104,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -6042,7 +6113,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -6051,7 +6122,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>2583.33</v>
       </c>
@@ -6059,7 +6130,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3FCE888B-B217-4786-981D-6E3381962135}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F663352C-0155-4E59-87E4-F36F54C61763}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="162">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -722,6 +722,10 @@
   </si>
   <si>
     <t>京东金融：7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建行1954</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2006,10 +2010,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:M55"/>
+  <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3179,26 +3183,87 @@
       <c r="B51" s="10">
         <v>50</v>
       </c>
+      <c r="C51" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="38">
+        <v>43177.385416666664</v>
+      </c>
+      <c r="E51" s="42">
+        <v>-130000</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="10">
         <v>51</v>
       </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="10">
         <v>52</v>
       </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="42"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="10">
         <v>53</v>
       </c>
+      <c r="D54" s="38"/>
+      <c r="E54" s="42"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="10">
         <v>54</v>
       </c>
+      <c r="D55" s="38"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D56" s="38"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D57" s="38"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D58" s="38"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D59" s="38"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D60" s="38"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D61" s="38"/>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D62" s="38"/>
+      <c r="E62" s="42"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D63" s="38"/>
+      <c r="E63" s="42"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E64" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5740,8 +5805,8 @@
   </sheetPr>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F663352C-0155-4E59-87E4-F36F54C61763}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4BA92C56-FAD8-4D9E-BD87-6DDFE4B33A69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="162">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2013,7 +2013,7 @@
   <dimension ref="B1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53:H54"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3206,8 +3206,24 @@
       <c r="B52" s="10">
         <v>51</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="42"/>
+      <c r="C52" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="38">
+        <v>43177.387499999997</v>
+      </c>
+      <c r="E52" s="42">
+        <v>14000</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="10">

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4BA92C56-FAD8-4D9E-BD87-6DDFE4B33A69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">人人贷!$C$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">宜人贷!$C$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="165">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -728,11 +727,23 @@
     <t>建行1954</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPmoney-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -1367,22 +1378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="8"/>
+    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1391,7 +1402,7 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1405,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1415,16 +1426,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" customWidth="1"/>
-    <col min="6" max="9" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.9140625" customWidth="1"/>
+    <col min="6" max="9" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1474,7 +1485,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1510,7 +1521,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1520,7 +1531,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1530,7 +1541,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1540,7 +1551,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1550,7 +1561,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1560,7 +1571,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1570,7 +1581,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1580,7 +1591,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1590,7 +1601,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1600,7 +1611,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1610,7 +1621,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1620,7 +1631,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1630,7 +1641,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1640,7 +1651,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1650,7 +1661,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1660,7 +1671,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1670,7 +1681,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1680,7 +1691,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1690,7 +1701,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1700,7 +1711,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1710,7 +1721,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1720,7 +1731,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1730,7 +1741,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1740,7 +1751,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1750,7 +1761,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1760,7 +1771,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1770,7 +1781,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1780,7 +1791,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1798,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1808,17 +1819,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1864,7 +1875,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1910,7 +1921,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -1931,7 +1942,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -1952,7 +1963,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -2006,30 +2017,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="8"/>
+    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2118,7 +2129,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2187,7 +2198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2233,7 +2244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2256,7 +2267,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2302,7 +2313,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2348,7 +2359,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2372,7 +2383,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2395,7 +2406,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2419,7 +2430,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2443,7 +2454,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2489,7 +2500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2512,7 +2523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2535,7 +2546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2558,7 +2569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2719,7 +2730,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2811,7 +2822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2834,7 +2845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2857,7 +2868,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2880,7 +2891,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2903,7 +2914,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2926,7 +2937,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2949,7 +2960,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2972,7 +2983,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -2995,7 +3006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -3018,7 +3029,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -3041,7 +3052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -3064,7 +3075,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="10">
         <v>45</v>
       </c>
@@ -3087,7 +3098,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="10">
         <v>46</v>
       </c>
@@ -3110,7 +3121,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="10">
         <v>47</v>
       </c>
@@ -3133,7 +3144,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="10">
         <v>48</v>
       </c>
@@ -3156,7 +3167,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="10">
         <v>49</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="10">
         <v>50</v>
       </c>
@@ -3202,7 +3213,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="10">
         <v>51</v>
       </c>
@@ -3225,60 +3236,76 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="10">
         <v>52</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="42"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C53" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="38">
+        <v>43181</v>
+      </c>
+      <c r="E53" s="42">
+        <v>104956.16</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="10">
         <v>53</v>
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="42"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="10">
         <v>54</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="42"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D56" s="38"/>
       <c r="E56" s="42"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D57" s="38"/>
       <c r="E57" s="42"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D58" s="38"/>
       <c r="E58" s="42"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D59" s="38"/>
       <c r="E59" s="42"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D60" s="38"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D61" s="38"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D62" s="38"/>
       <c r="E62" s="42"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D63" s="38"/>
       <c r="E63" s="42"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E64" s="42"/>
     </row>
   </sheetData>
@@ -3289,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3299,20 +3326,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="8"/>
+    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3335,7 +3362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3355,7 +3382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3375,7 +3402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3395,7 +3422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3415,7 +3442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3435,7 +3462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3455,7 +3482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3475,7 +3502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3495,7 +3522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3515,7 +3542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3535,7 +3562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3555,7 +3582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3575,7 +3602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3595,7 +3622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3615,7 +3642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3635,7 +3662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3656,7 +3683,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3679,7 +3706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3702,7 +3729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3725,7 +3752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3748,7 +3775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3771,7 +3798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3794,7 +3821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3817,133 +3844,133 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F17" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C1:F17"/>
   <sortState ref="B2:F57">
     <sortCondition ref="D1"/>
   </sortState>
@@ -3954,7 +3981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3964,19 +3991,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="8"/>
+    <col min="8" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -3997,7 +4024,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4017,7 +4044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4037,203 +4064,203 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="C1:F1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4241,7 +4268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4251,19 +4278,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="2"/>
+    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4284,7 +4311,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4304,7 +4331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4324,98 +4351,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4451,27 +4478,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4560,14 +4587,14 @@
       <c r="D58" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="C1:F1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4577,20 +4604,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="8"/>
+    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4616,7 +4643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4644,7 +4671,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4672,7 +4699,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4700,7 +4727,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4726,7 +4753,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4752,7 +4779,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4776,7 +4803,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4788,7 +4815,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4800,7 +4827,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4812,7 +4839,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4824,7 +4851,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4836,7 +4863,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4848,7 +4875,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4860,7 +4887,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4872,7 +4899,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4884,7 +4911,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4896,7 +4923,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4908,7 +4935,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4920,7 +4947,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4932,7 +4959,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -4944,7 +4971,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -4956,7 +4983,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -4968,163 +4995,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -5135,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5145,18 +5172,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.296875" customWidth="1"/>
-    <col min="6" max="6" width="39.19921875" customWidth="1"/>
-    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5179,7 +5206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5202,7 +5229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -5225,7 +5252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5248,7 +5275,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5271,7 +5298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5280,7 +5307,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5289,7 +5316,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5298,7 +5325,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5307,7 +5334,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5316,7 +5343,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5325,7 +5352,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5334,7 +5361,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5343,7 +5370,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5352,7 +5379,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5361,7 +5388,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5370,7 +5397,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5379,7 +5406,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5388,7 +5415,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5397,7 +5424,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5406,7 +5433,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5415,7 +5442,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5424,7 +5451,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5433,7 +5460,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5450,27 +5477,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:I2"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5496,7 +5525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5519,6 +5548,161 @@
         <v>24</v>
       </c>
       <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="38">
+        <v>43180</v>
+      </c>
+      <c r="E3" s="38">
+        <v>43181</v>
+      </c>
+      <c r="F3" s="42">
+        <v>-104956.16</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="41"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="41"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="41"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="41"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="41"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C10" s="41"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="41"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C13" s="41"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C14" s="41"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C15" s="41"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C16" s="41"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C17" s="41"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="41"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="41"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C20" s="41"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="41"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="41"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="41"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C24" s="41"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C25" s="41"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C26" s="41"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5528,7 +5712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5538,17 +5722,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
-    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5571,7 +5755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5594,7 +5778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5617,7 +5801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5640,7 +5824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5663,7 +5847,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5672,7 +5856,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5681,7 +5865,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5690,7 +5874,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5699,7 +5883,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5708,7 +5892,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5717,7 +5901,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5726,7 +5910,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5735,7 +5919,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5744,7 +5928,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5753,7 +5937,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5762,7 +5946,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5771,7 +5955,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5780,7 +5964,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5789,7 +5973,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5798,7 +5982,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -5815,28 +5999,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.9140625" customWidth="1"/>
+    <col min="8" max="8" width="24.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5859,7 +6043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5882,7 +6066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5905,7 +6089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5928,7 +6112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5951,7 +6135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -5974,7 +6158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -5997,7 +6181,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -6020,7 +6204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -6043,7 +6227,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -6066,7 +6250,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -6089,7 +6273,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -6112,7 +6296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -6135,7 +6319,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="12">
         <v>13</v>
       </c>
@@ -6158,7 +6342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -6167,7 +6351,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -6176,7 +6360,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -6185,7 +6369,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -6194,7 +6378,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -6203,7 +6387,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>2583.33</v>
       </c>
@@ -6211,7 +6395,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>48</v>
       </c>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B8F2777-50D5-4282-9B8B-BC5F201CBF68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="165">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -743,7 +744,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -1378,22 +1379,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="1" max="1" width="8.69921875" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="8"/>
+    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1416,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1426,16 +1427,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" customWidth="1"/>
-    <col min="6" max="9" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="9" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1485,7 +1486,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1521,7 +1522,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1531,7 +1532,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1541,7 +1542,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1551,7 +1552,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1561,7 +1562,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1571,7 +1572,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1581,7 +1582,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1591,7 +1592,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1601,7 +1602,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1611,7 +1612,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1621,7 +1622,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1631,7 +1632,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1641,7 +1642,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1651,7 +1652,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1661,7 +1662,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1671,7 +1672,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1681,7 +1682,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1691,7 +1692,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1701,7 +1702,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1711,7 +1712,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1721,7 +1722,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1731,7 +1732,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1741,7 +1742,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1751,7 +1752,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1761,7 +1762,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1771,7 +1772,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1781,7 +1782,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1791,7 +1792,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1809,7 +1810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1819,17 +1820,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -1942,7 +1943,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -1963,7 +1964,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -2017,30 +2018,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2383,7 +2384,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2430,7 +2431,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2454,7 +2455,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="10">
         <v>45</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="10">
         <v>46</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="10">
         <v>47</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="10">
         <v>48</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="10">
         <v>49</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="10">
         <v>50</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="10">
         <v>51</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="10">
         <v>52</v>
       </c>
@@ -3259,53 +3260,69 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="10">
         <v>53</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C54" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="38">
+        <v>43181.942361111112</v>
+      </c>
+      <c r="E54" s="42">
+        <v>-100000</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="10">
         <v>54</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="42"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D56" s="38"/>
       <c r="E56" s="42"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D57" s="38"/>
       <c r="E57" s="42"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D58" s="38"/>
       <c r="E58" s="42"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D59" s="38"/>
       <c r="E59" s="42"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D60" s="38"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D61" s="38"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D62" s="38"/>
       <c r="E62" s="42"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D63" s="38"/>
       <c r="E63" s="42"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E64" s="42"/>
     </row>
   </sheetData>
@@ -3316,7 +3333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3326,20 +3343,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3362,7 +3379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3382,7 +3399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3402,7 +3419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3422,7 +3439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3442,7 +3459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3462,7 +3479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3502,7 +3519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3522,7 +3539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3542,7 +3559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3562,7 +3579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3582,7 +3599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3602,7 +3619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3622,7 +3639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3642,7 +3659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3662,7 +3679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3683,7 +3700,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3706,7 +3723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3729,7 +3746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3752,7 +3769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3775,7 +3792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3798,7 +3815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3821,7 +3838,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3844,133 +3861,133 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F17"/>
+  <autoFilter ref="C1:F17" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <sortState ref="B2:F57">
     <sortCondition ref="D1"/>
   </sortState>
@@ -3981,7 +3998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3991,19 +4008,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -4024,7 +4041,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4044,7 +4061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4064,203 +4081,203 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1"/>
+  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4268,7 +4285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4278,19 +4295,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4311,7 +4328,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4331,7 +4348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4351,98 +4368,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4478,27 +4495,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4587,14 +4604,14 @@
       <c r="D58" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1"/>
+  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4604,20 +4621,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="8"/>
+    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4643,7 +4660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4671,7 +4688,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4699,7 +4716,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4727,7 +4744,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4753,7 +4770,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4779,7 +4796,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4803,7 +4820,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4815,7 +4832,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4827,7 +4844,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4839,7 +4856,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4851,7 +4868,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4863,7 +4880,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4875,7 +4892,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4887,7 +4904,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4899,7 +4916,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4911,7 +4928,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4923,7 +4940,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4935,7 +4952,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4947,7 +4964,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4959,7 +4976,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -4971,7 +4988,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -4983,7 +5000,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -4995,163 +5012,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -5162,7 +5179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5172,18 +5189,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.296875" customWidth="1"/>
+    <col min="6" max="6" width="39.19921875" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5206,7 +5223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5229,7 +5246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -5252,7 +5269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5275,7 +5292,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5298,7 +5315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5307,7 +5324,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5316,7 +5333,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5325,7 +5342,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5334,7 +5351,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5343,7 +5360,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5352,7 +5369,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5361,7 +5378,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5370,7 +5387,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5379,7 +5396,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5388,7 +5405,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5397,7 +5414,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5406,7 +5423,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5415,7 +5432,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5424,7 +5441,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5433,7 +5450,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5442,7 +5459,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5451,7 +5468,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5460,7 +5477,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5477,7 +5494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5487,19 +5504,19 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5525,7 +5542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5549,7 +5566,7 @@
       </c>
       <c r="I2" s="41"/>
     </row>
-    <row r="3" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5572,134 +5589,134 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="42"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="42"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="42"/>
     </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="42"/>
     </row>
-    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="42"/>
     </row>
-    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="42"/>
     </row>
-    <row r="17" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="42"/>
     </row>
-    <row r="18" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="42"/>
     </row>
-    <row r="19" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -5712,7 +5729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5722,17 +5739,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5755,7 +5772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5778,7 +5795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5801,7 +5818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5824,7 +5841,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5847,7 +5864,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5856,7 +5873,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5865,7 +5882,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5874,7 +5891,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5883,7 +5900,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5892,7 +5909,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5901,7 +5918,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5910,7 +5927,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5919,7 +5936,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5928,7 +5945,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5937,7 +5954,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5946,7 +5963,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5955,7 +5972,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5964,7 +5981,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5973,7 +5990,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5982,7 +5999,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -5999,28 +6016,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.9140625" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -6043,7 +6060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -6066,7 +6083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -6089,7 +6106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -6112,7 +6129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -6135,7 +6152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -6158,7 +6175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -6181,7 +6198,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -6204,7 +6221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -6227,7 +6244,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -6250,7 +6267,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -6273,7 +6290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -6296,7 +6313,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -6319,7 +6336,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <v>13</v>
       </c>
@@ -6342,7 +6359,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -6351,7 +6368,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -6360,7 +6377,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -6369,7 +6386,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -6378,7 +6395,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -6387,7 +6404,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>2583.33</v>
       </c>
@@ -6395,7 +6412,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B8F2777-50D5-4282-9B8B-BC5F201CBF68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="167">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -740,11 +739,19 @@
     <t>PPmoney-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>工行卡：54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团贷网：14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -1379,22 +1386,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="8"/>
+    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1403,7 +1410,7 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1417,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1427,16 +1434,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" customWidth="1"/>
-    <col min="6" max="9" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.9140625" customWidth="1"/>
+    <col min="6" max="9" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1486,7 +1493,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1522,7 +1529,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1532,7 +1539,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1542,7 +1549,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1552,7 +1559,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1562,7 +1569,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1572,7 +1579,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1582,7 +1589,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1592,7 +1599,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1602,7 +1609,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1612,7 +1619,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1622,7 +1629,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1632,7 +1639,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1642,7 +1649,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1652,7 +1659,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1662,7 +1669,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1672,7 +1679,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1682,7 +1689,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1692,7 +1699,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1702,7 +1709,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1712,7 +1719,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1722,7 +1729,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1732,7 +1739,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1742,7 +1749,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1752,7 +1759,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1762,7 +1769,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1772,7 +1779,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1782,7 +1789,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1792,7 +1799,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1810,7 +1817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1820,17 +1827,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1899,7 +1906,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1922,7 +1929,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -1943,7 +1950,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -1964,7 +1971,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -2018,30 +2025,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="8"/>
+    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -2084,7 +2091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2107,7 +2114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2153,7 +2160,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2176,7 +2183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2199,7 +2206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2222,7 +2229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2245,7 +2252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2314,7 +2321,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2360,7 +2367,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2384,7 +2391,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2431,7 +2438,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2455,7 +2462,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2547,7 +2554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2570,7 +2577,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2593,7 +2600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2685,7 +2692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2708,7 +2715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2754,7 +2761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2846,7 +2853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2869,7 +2876,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2938,7 +2945,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2961,7 +2968,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2984,7 +2991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -3030,7 +3037,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -3053,7 +3060,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -3076,7 +3083,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="10">
         <v>45</v>
       </c>
@@ -3099,7 +3106,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="10">
         <v>46</v>
       </c>
@@ -3122,7 +3129,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="10">
         <v>47</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="10">
         <v>48</v>
       </c>
@@ -3168,7 +3175,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="10">
         <v>49</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="10">
         <v>50</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="10">
         <v>51</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="10">
         <v>52</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="10">
         <v>53</v>
       </c>
@@ -3283,46 +3290,62 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="10">
         <v>54</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="42"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C55" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="38">
+        <v>43188.583333333336</v>
+      </c>
+      <c r="E55" s="42">
+        <v>202854.68</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D56" s="38"/>
       <c r="E56" s="42"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D57" s="38"/>
       <c r="E57" s="42"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D58" s="38"/>
       <c r="E58" s="42"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D59" s="38"/>
       <c r="E59" s="42"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D60" s="38"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D61" s="38"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D62" s="38"/>
       <c r="E62" s="42"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D63" s="38"/>
       <c r="E63" s="42"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E64" s="42"/>
     </row>
   </sheetData>
@@ -3333,7 +3356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3343,20 +3366,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="8"/>
+    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3379,7 +3402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3399,7 +3422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3419,7 +3442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3439,7 +3462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3459,7 +3482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3479,7 +3502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3499,7 +3522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3519,7 +3542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3539,7 +3562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3559,7 +3582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3579,7 +3602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3599,7 +3622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3619,7 +3642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3639,7 +3662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3659,7 +3682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3679,7 +3702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3700,7 +3723,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3723,7 +3746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3746,7 +3769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3769,7 +3792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3792,7 +3815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3815,7 +3838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3838,7 +3861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3861,133 +3884,133 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F17" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C1:F17"/>
   <sortState ref="B2:F57">
     <sortCondition ref="D1"/>
   </sortState>
@@ -3998,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4008,19 +4031,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="8"/>
+    <col min="8" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -4041,7 +4064,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4061,7 +4084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4081,203 +4104,203 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="C1:F1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4285,7 +4308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4295,19 +4318,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="2"/>
+    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4328,7 +4351,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4348,7 +4371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4368,98 +4391,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4495,27 +4518,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4604,14 +4627,14 @@
       <c r="D58" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="C1:F1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4621,20 +4644,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="8"/>
+    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4660,7 +4683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4688,7 +4711,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4716,7 +4739,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4744,7 +4767,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4770,7 +4793,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4796,7 +4819,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4820,7 +4843,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4832,7 +4855,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4844,7 +4867,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4856,7 +4879,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4868,7 +4891,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4880,7 +4903,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4892,7 +4915,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4904,7 +4927,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4916,7 +4939,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4928,7 +4951,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4940,7 +4963,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4952,7 +4975,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4964,7 +4987,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4976,7 +4999,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -4988,7 +5011,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -5000,7 +5023,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -5012,163 +5035,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -5179,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5189,18 +5212,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.296875" customWidth="1"/>
-    <col min="6" max="6" width="39.19921875" customWidth="1"/>
-    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5223,7 +5246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5246,7 +5269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -5269,7 +5292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5292,7 +5315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5315,7 +5338,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5324,7 +5347,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5333,7 +5356,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5342,7 +5365,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5351,7 +5374,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5360,7 +5383,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5369,7 +5392,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5378,7 +5401,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5387,7 +5410,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5396,7 +5419,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5405,7 +5428,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5414,7 +5437,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5423,7 +5446,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5432,7 +5455,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5441,7 +5464,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5450,7 +5473,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5459,7 +5482,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5468,7 +5491,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5477,7 +5500,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5494,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5504,19 +5527,19 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5542,7 +5565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5566,7 +5589,7 @@
       </c>
       <c r="I2" s="41"/>
     </row>
-    <row r="3" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5589,134 +5612,134 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="42"/>
     </row>
-    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="42"/>
     </row>
-    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="42"/>
     </row>
-    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="42"/>
     </row>
-    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="42"/>
     </row>
-    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="42"/>
     </row>
-    <row r="17" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="42"/>
     </row>
-    <row r="18" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="42"/>
     </row>
-    <row r="19" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -5729,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5739,17 +5762,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
-    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5772,7 +5795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5795,7 +5818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5818,7 +5841,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5841,7 +5864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5864,7 +5887,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5873,7 +5896,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5882,7 +5905,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5891,7 +5914,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5900,7 +5923,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5909,7 +5932,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5918,7 +5941,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5927,7 +5950,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5936,7 +5959,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5945,7 +5968,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5954,7 +5977,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5963,7 +5986,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5972,7 +5995,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5981,7 +6004,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5990,7 +6013,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5999,7 +6022,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -6016,28 +6039,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" customWidth="1"/>
-    <col min="8" max="8" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.9140625" customWidth="1"/>
+    <col min="8" max="8" width="24.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -6060,7 +6083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -6083,7 +6106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -6106,7 +6129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -6129,7 +6152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -6152,7 +6175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -6175,7 +6198,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -6198,7 +6221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -6221,7 +6244,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -6244,7 +6267,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -6267,7 +6290,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -6290,7 +6313,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -6313,7 +6336,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -6336,7 +6359,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="12">
         <v>13</v>
       </c>
@@ -6359,16 +6382,30 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="B15" s="12">
+        <v>14</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="38">
+        <v>43188.583333333336</v>
+      </c>
+      <c r="E15" s="42">
+        <v>-202854.68</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -6377,7 +6414,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -6386,7 +6423,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -6395,7 +6432,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -6404,7 +6441,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>2583.33</v>
       </c>
@@ -6412,7 +6449,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>48</v>
       </c>

--- a/投资理财.xlsx
+++ b/投资理财.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9C428388-6226-4DBB-BB0D-549720333C92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="814" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" tabRatio="814" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="4" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="169">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -747,11 +748,19 @@
     <t>团贷网：14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>团贷网：15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行卡：55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -1386,22 +1395,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="1" max="1" width="8.69921875" style="8"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="8"/>
+    <col min="3" max="3" width="14.8984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1410,7 +1419,7 @@
         <v>355868</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1424,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1434,16 +1443,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" customWidth="1"/>
-    <col min="6" max="9" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="9" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1493,7 +1502,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
@@ -1529,7 +1538,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
@@ -1539,7 +1548,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -1549,7 +1558,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -1559,7 +1568,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -1569,7 +1578,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -1579,7 +1588,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -1589,7 +1598,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -1599,7 +1608,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -1609,7 +1618,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -1619,7 +1628,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -1629,7 +1638,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -1639,7 +1648,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -1649,7 +1658,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -1659,7 +1668,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -1669,7 +1678,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -1679,7 +1688,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -1689,7 +1698,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -1699,7 +1708,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
@@ -1709,7 +1718,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
@@ -1719,7 +1728,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
@@ -1729,7 +1738,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
@@ -1739,7 +1748,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
@@ -1749,7 +1758,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="41"/>
       <c r="D27" s="38"/>
@@ -1759,7 +1768,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="41"/>
       <c r="D28" s="38"/>
@@ -1769,7 +1778,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="41"/>
       <c r="D29" s="38"/>
@@ -1779,7 +1788,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="41"/>
       <c r="D30" s="38"/>
@@ -1789,7 +1798,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="41"/>
       <c r="D31" s="38"/>
@@ -1799,7 +1808,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="41"/>
       <c r="D32" s="38"/>
@@ -1817,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1827,17 +1836,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -1950,7 +1959,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -1971,7 +1980,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -2025,30 +2034,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:M64"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="21.8984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -2091,7 +2100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2114,7 +2123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -2160,7 +2169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -2183,7 +2192,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -2298,7 +2307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -2391,7 +2400,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -2438,7 +2447,7 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -2462,7 +2471,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -2485,7 +2494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -2531,7 +2540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -2554,7 +2563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -2577,7 +2586,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -2600,7 +2609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>24</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>25</v>
       </c>
@@ -2646,7 +2655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>26</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>27</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="10">
         <v>28</v>
       </c>
@@ -2715,7 +2724,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>29</v>
       </c>
@@ -2738,7 +2747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="10">
         <v>30</v>
       </c>
@@ -2761,7 +2770,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>31</v>
       </c>
@@ -2784,7 +2793,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -2945,7 +2954,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>39</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="10">
         <v>40</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>41</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="10">
         <v>42</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="10">
         <v>43</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10">
         <v>44</v>
       </c>
@@ -3083,7 +3092,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="10">
         <v>45</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="10">
         <v>46</v>
       </c>
@@ -3129,7 +3138,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="10">
         <v>47</v>
       </c>
@@ -3152,7 +3161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="10">
         <v>48</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="10">
         <v>49</v>
       </c>
@@ -3198,7 +3207,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="10">
         <v>50</v>
       </c>
@@ -3221,7 +3230,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="10">
         <v>51</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="10">
         <v>52</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="10">
         <v>53</v>
       </c>
@@ -3290,7 +3299,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="10">
         <v>54</v>
       </c>
@@ -3313,39 +3322,58 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="D56" s="38"/>
-      <c r="E56" s="42"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="10">
+        <v>55</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="38">
+        <v>43222</v>
+      </c>
+      <c r="E56" s="42">
+        <v>202464.42</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D57" s="38"/>
       <c r="E57" s="42"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D58" s="38"/>
       <c r="E58" s="42"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D59" s="38"/>
       <c r="E59" s="42"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D60" s="38"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D61" s="38"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D62" s="38"/>
       <c r="E62" s="42"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D63" s="38"/>
       <c r="E63" s="42"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E64" s="42"/>
     </row>
   </sheetData>
@@ -3356,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3366,20 +3394,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.9140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="8" width="16.796875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -3402,7 +3430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -3422,7 +3450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -3442,7 +3470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3462,7 +3490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -3482,7 +3510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3502,7 +3530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -3522,7 +3550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3542,7 +3570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -3562,7 +3590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -3582,7 +3610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>10</v>
       </c>
@@ -3602,7 +3630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>11</v>
       </c>
@@ -3622,7 +3650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>12</v>
       </c>
@@ -3642,7 +3670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>13</v>
       </c>
@@ -3662,7 +3690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>14</v>
       </c>
@@ -3682,7 +3710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>15</v>
       </c>
@@ -3702,7 +3730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>16</v>
       </c>
@@ -3723,7 +3751,7 @@
       </c>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>17</v>
       </c>
@@ -3746,7 +3774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -3769,7 +3797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>19</v>
       </c>
@@ -3792,7 +3820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -3815,7 +3843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>21</v>
       </c>
@@ -3838,7 +3866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>22</v>
       </c>
@@ -3861,7 +3889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3884,133 +3912,133 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" s="29"/>
       <c r="E25" s="25"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26" s="29"/>
       <c r="E26" s="25"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" s="29"/>
       <c r="E29" s="25"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D32" s="29"/>
       <c r="E32" s="25"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="29"/>
       <c r="E33" s="25"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="29"/>
       <c r="E34" s="25"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="29"/>
       <c r="E36" s="25"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F17"/>
+  <autoFilter ref="C1:F17" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <sortState ref="B2:F57">
     <sortCondition ref="D1"/>
   </sortState>
@@ -4021,7 +4049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4031,19 +4059,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="8"/>
+    <col min="8" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -4064,7 +4092,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4084,7 +4112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4104,203 +4132,203 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" s="36"/>
       <c r="E18" s="25"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" s="36"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" s="36"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" s="36"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D22" s="36"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" s="36"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1"/>
+  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4308,7 +4336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4318,19 +4346,19 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="14.09765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4379,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -4371,7 +4399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4391,98 +4419,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="29"/>
       <c r="E4" s="25"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="29"/>
       <c r="E5" s="25"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="29"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
       <c r="E10" s="25"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="25"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="25"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="25"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:7" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="35"/>
@@ -4518,27 +4546,27 @@
       <c r="D24" s="36"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="12.7" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="26"/>
     </row>
@@ -4627,14 +4655,14 @@
       <c r="D58" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F1"/>
+  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4644,20 +4672,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.08203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="8"/>
+    <col min="5" max="6" width="14.09765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4683,7 +4711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="62">
         <v>1</v>
@@ -4711,7 +4739,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="21">
         <v>2</v>
@@ -4739,7 +4767,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="21">
         <v>3</v>
@@ -4767,7 +4795,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="21">
         <v>4</v>
@@ -4793,7 +4821,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>5</v>
@@ -4819,7 +4847,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>6</v>
@@ -4843,7 +4871,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -4855,7 +4883,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -4867,7 +4895,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -4879,7 +4907,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -4891,7 +4919,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="12"/>
       <c r="C12" s="20"/>
@@ -4903,7 +4931,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -4915,7 +4943,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -4927,7 +4955,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -4939,7 +4967,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -4951,7 +4979,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -4963,7 +4991,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -4975,7 +5003,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -4987,7 +5015,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -4999,7 +5027,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -5011,7 +5039,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -5023,7 +5051,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -5035,163 +5063,163 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" s="14"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D32" s="14"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="14"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="14"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="14"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="14"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="14"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="14"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="14"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="14"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="14"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="14"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="14"/>
     </row>
   </sheetData>
@@ -5202,7 +5230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5212,18 +5240,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.296875" customWidth="1"/>
+    <col min="6" max="6" width="39.19921875" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5246,7 +5274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5269,7 +5297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
         <v>2</v>
       </c>
@@ -5292,7 +5320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5315,7 +5343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5338,7 +5366,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5347,7 +5375,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5356,7 +5384,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5365,7 +5393,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5374,7 +5402,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5383,7 +5411,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5392,7 +5420,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5401,7 +5429,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5410,7 +5438,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5419,7 +5447,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5428,7 +5456,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5437,7 +5465,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5446,7 +5474,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -5455,7 +5483,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -5464,7 +5492,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
@@ -5473,7 +5501,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
@@ -5482,7 +5510,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -5491,7 +5519,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -5500,7 +5528,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -5517,7 +5545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5527,19 +5555,19 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5565,7 +5593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -5589,7 +5617,7 @@
       </c>
       <c r="I2" s="41"/>
     </row>
-    <row r="3" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5612,134 +5640,134 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C4" s="41"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="42"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="42"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="42"/>
     </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="42"/>
     </row>
-    <row r="14" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="42"/>
     </row>
-    <row r="16" spans="2:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="42"/>
     </row>
-    <row r="17" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="42"/>
     </row>
-    <row r="18" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="42"/>
     </row>
-    <row r="19" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C20" s="41"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C22" s="41"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C23" s="41"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C24" s="41"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C25" s="41"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C26" s="41"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -5752,7 +5780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5762,17 +5790,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -5795,7 +5823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="57">
         <v>1</v>
       </c>
@@ -5818,7 +5846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -5841,7 +5869,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -5864,7 +5892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -5887,7 +5915,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="41"/>
       <c r="D6" s="38"/>
@@ -5896,7 +5924,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="41"/>
       <c r="D7" s="38"/>
@@ -5905,7 +5933,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -5914,7 +5942,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="41"/>
       <c r="D9" s="38"/>
@@ -5923,7 +5951,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="41"/>
       <c r="D10" s="38"/>
@@ -5932,7 +5960,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -5941,7 +5969,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="41"/>
       <c r="D12" s="38"/>
@@ -5950,7 +5978,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="41"/>
       <c r="D13" s="38"/>
@@ -5959,7 +5987,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -5968,7 +5996,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
@@ -5977,7 +6005,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
@@ -5986,7 +6014,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -5995,7 +6023,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -6004,7 +6032,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -6013,7 +6041,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -6022,7 +6050,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="J26" s="12"/>
       <c r="K26" s="41"/>
       <c r="L26" s="38"/>
@@ -6039,28 +6067,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.9140625" customWidth="1"/>
-    <col min="8" max="8" width="24.4140625" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
@@ -6083,7 +6111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>1</v>
       </c>
@@ -6106,7 +6134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>2</v>
       </c>
@@ -6129,7 +6157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>3</v>
       </c>
@@ -6152,7 +6180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>4</v>
       </c>
@@ -6175,7 +6203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -6198,7 +6226,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6</v>
       </c>
@@ -6221,7 +6249,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>7</v>
       </c>
@@ -6244,7 +6272,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>8</v>
       </c>
@@ -6267,7 +6295,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>9</v>
       </c>
@@ -6290,7 +6318,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -6313,7 +6341,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -6336,7 +6364,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -6359,7 +6387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <v>13</v>
       </c>
@@ -6382,7 +6410,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>14</v>
       </c>
@@ -6405,16 +6433,30 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B16" s="12">
+        <v>15</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="38">
+        <v>43222</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-202464.42</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
@@ -6423,7 +6465,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
       <c r="D18" s="38"/>
@@ -6432,7 +6474,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="41"/>
       <c r="D19" s="38"/>
@@ -6441,7 +6483,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>2583.33</v>
       </c>
@@ -6449,7 +6491,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>
